--- a/excel/关卡配置表.xlsx
+++ b/excel/关卡配置表.xlsx
@@ -179,7 +179,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +229,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,46 +289,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,9 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,10 +320,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,23 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,16 +358,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,7 +395,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,175 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,35 +591,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +648,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -675,7 +667,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,137 +706,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +881,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1225,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:Y147"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A49" sqref="$A49:$XFD49"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1851,7 +1861,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1884,7 +1894,7 @@
         <v>50</v>
       </c>
       <c r="G22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1932,7 +1942,7 @@
         <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1965,7 +1975,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1998,7 +2008,7 @@
         <v>60</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2031,7 +2041,7 @@
         <v>60</v>
       </c>
       <c r="G26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2064,7 +2074,7 @@
         <v>60</v>
       </c>
       <c r="G27" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2093,10 +2103,10 @@
         <v>1.2</v>
       </c>
       <c r="F28" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2129,7 +2139,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2162,7 +2172,7 @@
         <v>60</v>
       </c>
       <c r="G30" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2195,7 +2205,7 @@
         <v>60</v>
       </c>
       <c r="G31" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2228,7 +2238,7 @@
         <v>60</v>
       </c>
       <c r="G32" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2261,7 +2271,7 @@
         <v>70</v>
       </c>
       <c r="G33" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2294,7 +2304,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2323,10 +2333,10 @@
         <v>1.3</v>
       </c>
       <c r="F35" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G35" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2356,10 +2366,10 @@
         <v>1.2</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G36" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2389,10 +2399,10 @@
         <v>1.2</v>
       </c>
       <c r="F37" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G37" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -2422,10 +2432,10 @@
         <v>1.2</v>
       </c>
       <c r="F38" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G38" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2455,10 +2465,10 @@
         <v>1.3</v>
       </c>
       <c r="F39" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G39" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2488,10 +2498,10 @@
         <v>1.3</v>
       </c>
       <c r="F40" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -2521,10 +2531,10 @@
         <v>1.3</v>
       </c>
       <c r="F41" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G41" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2553,10 +2563,10 @@
         <v>1.4</v>
       </c>
       <c r="F42" s="2">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G42" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H42" s="1">
         <v>10060</v>
@@ -2589,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="G43" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -2622,7 +2632,7 @@
         <v>70</v>
       </c>
       <c r="G44" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2655,7 +2665,7 @@
         <v>70</v>
       </c>
       <c r="G45" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2688,7 +2698,7 @@
         <v>80</v>
       </c>
       <c r="G46" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2721,7 +2731,7 @@
         <v>80</v>
       </c>
       <c r="G47" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2754,7 +2764,7 @@
         <v>80</v>
       </c>
       <c r="G48" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2786,7 +2796,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2819,7 +2829,7 @@
         <v>60</v>
       </c>
       <c r="G50" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -2852,7 +2862,7 @@
         <v>70</v>
       </c>
       <c r="G51" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -2885,7 +2895,7 @@
         <v>70</v>
       </c>
       <c r="G52" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -2918,7 +2928,7 @@
         <v>80</v>
       </c>
       <c r="G53" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -2951,7 +2961,7 @@
         <v>80</v>
       </c>
       <c r="G54" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -2984,7 +2994,7 @@
         <v>80</v>
       </c>
       <c r="G55" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -3016,7 +3026,7 @@
         <v>100</v>
       </c>
       <c r="G56" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -3049,7 +3059,7 @@
         <v>60</v>
       </c>
       <c r="G57" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -3082,7 +3092,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -3115,7 +3125,7 @@
         <v>70</v>
       </c>
       <c r="G59" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3148,7 +3158,7 @@
         <v>80</v>
       </c>
       <c r="G60" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -3181,7 +3191,7 @@
         <v>80</v>
       </c>
       <c r="G61" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -3214,7 +3224,7 @@
         <v>80</v>
       </c>
       <c r="G62" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -3246,7 +3256,7 @@
         <v>100</v>
       </c>
       <c r="G63" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3278,7 +3288,7 @@
         <v>80</v>
       </c>
       <c r="G64" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -3310,7 +3320,7 @@
         <v>80</v>
       </c>
       <c r="G65" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3342,7 +3352,7 @@
         <v>80</v>
       </c>
       <c r="G66" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -3374,7 +3384,7 @@
         <v>90</v>
       </c>
       <c r="G67" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -3406,7 +3416,7 @@
         <v>90</v>
       </c>
       <c r="G68" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -3438,7 +3448,7 @@
         <v>90</v>
       </c>
       <c r="G69" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -3467,10 +3477,10 @@
         <v>1.7</v>
       </c>
       <c r="F70" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G70" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -3502,7 +3512,7 @@
         <v>80</v>
       </c>
       <c r="G71" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -3534,7 +3544,7 @@
         <v>80</v>
       </c>
       <c r="G72" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -3566,7 +3576,7 @@
         <v>80</v>
       </c>
       <c r="G73" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3598,7 +3608,7 @@
         <v>90</v>
       </c>
       <c r="G74" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -3630,7 +3640,7 @@
         <v>90</v>
       </c>
       <c r="G75" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
@@ -3662,7 +3672,7 @@
         <v>90</v>
       </c>
       <c r="G76" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H76" s="1">
         <v>0</v>
@@ -3691,10 +3701,10 @@
         <v>1.4</v>
       </c>
       <c r="F77" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G77" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H77" s="1">
         <v>10140</v>
@@ -3726,7 +3736,7 @@
         <v>80</v>
       </c>
       <c r="G78" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
@@ -3758,7 +3768,7 @@
         <v>80</v>
       </c>
       <c r="G79" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
@@ -3790,7 +3800,7 @@
         <v>80</v>
       </c>
       <c r="G80" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H80" s="1">
         <v>0</v>
@@ -3822,7 +3832,7 @@
         <v>90</v>
       </c>
       <c r="G81" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
@@ -3854,7 +3864,7 @@
         <v>90</v>
       </c>
       <c r="G82" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -3886,7 +3896,7 @@
         <v>90</v>
       </c>
       <c r="G83" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -3915,10 +3925,10 @@
         <v>1.5</v>
       </c>
       <c r="F84" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G84" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
@@ -3950,7 +3960,7 @@
         <v>80</v>
       </c>
       <c r="G85" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -3982,7 +3992,7 @@
         <v>80</v>
       </c>
       <c r="G86" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H86" s="1">
         <v>0</v>
@@ -4014,7 +4024,7 @@
         <v>80</v>
       </c>
       <c r="G87" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H87" s="1">
         <v>0</v>
@@ -4046,7 +4056,7 @@
         <v>90</v>
       </c>
       <c r="G88" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -4078,7 +4088,7 @@
         <v>90</v>
       </c>
       <c r="G89" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H89" s="1">
         <v>0</v>
@@ -4110,7 +4120,7 @@
         <v>90</v>
       </c>
       <c r="G90" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H90" s="1">
         <v>0</v>
@@ -4139,10 +4149,10 @@
         <v>1.5</v>
       </c>
       <c r="F91" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G91" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
@@ -4174,7 +4184,7 @@
         <v>90</v>
       </c>
       <c r="G92" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -4206,7 +4216,7 @@
         <v>90</v>
       </c>
       <c r="G93" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
@@ -4238,7 +4248,7 @@
         <v>90</v>
       </c>
       <c r="G94" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
@@ -4270,7 +4280,7 @@
         <v>90</v>
       </c>
       <c r="G95" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H95" s="1">
         <v>0</v>
@@ -4302,7 +4312,7 @@
         <v>100</v>
       </c>
       <c r="G96" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H96" s="1">
         <v>0</v>
@@ -4334,7 +4344,7 @@
         <v>110</v>
       </c>
       <c r="G97" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -4363,10 +4373,10 @@
         <v>1.7</v>
       </c>
       <c r="F98" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G98" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -4398,7 +4408,7 @@
         <v>80</v>
       </c>
       <c r="G99" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -4430,7 +4440,7 @@
         <v>80</v>
       </c>
       <c r="G100" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -4462,7 +4472,7 @@
         <v>80</v>
       </c>
       <c r="G101" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -4494,7 +4504,7 @@
         <v>90</v>
       </c>
       <c r="G102" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
@@ -4526,7 +4536,7 @@
         <v>90</v>
       </c>
       <c r="G103" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
@@ -4558,7 +4568,7 @@
         <v>90</v>
       </c>
       <c r="G104" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H104" s="1">
         <v>0</v>
@@ -4587,10 +4597,10 @@
         <v>1.5</v>
       </c>
       <c r="F105" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G105" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H105" s="1">
         <v>10190</v>
@@ -4622,7 +4632,7 @@
         <v>80</v>
       </c>
       <c r="G106" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H106" s="1">
         <v>0</v>
@@ -4654,7 +4664,7 @@
         <v>80</v>
       </c>
       <c r="G107" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
@@ -4686,7 +4696,7 @@
         <v>80</v>
       </c>
       <c r="G108" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
@@ -4718,7 +4728,7 @@
         <v>90</v>
       </c>
       <c r="G109" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
@@ -4750,7 +4760,7 @@
         <v>90</v>
       </c>
       <c r="G110" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H110" s="1">
         <v>0</v>
@@ -4782,7 +4792,7 @@
         <v>90</v>
       </c>
       <c r="G111" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H111" s="1">
         <v>0</v>
@@ -4811,10 +4821,10 @@
         <v>1.5</v>
       </c>
       <c r="F112" s="2">
-        <v>110</v>
-      </c>
-      <c r="G112" s="1">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="G112" s="15">
+        <v>26</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
@@ -4846,7 +4856,7 @@
         <v>80</v>
       </c>
       <c r="G113" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
@@ -4878,7 +4888,7 @@
         <v>80</v>
       </c>
       <c r="G114" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H114" s="1">
         <v>0</v>
@@ -4910,7 +4920,7 @@
         <v>80</v>
       </c>
       <c r="G115" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H115" s="1">
         <v>0</v>
@@ -4942,7 +4952,7 @@
         <v>90</v>
       </c>
       <c r="G116" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H116" s="1">
         <v>0</v>
@@ -4974,7 +4984,7 @@
         <v>90</v>
       </c>
       <c r="G117" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H117" s="1">
         <v>0</v>
@@ -5006,7 +5016,7 @@
         <v>90</v>
       </c>
       <c r="G118" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
@@ -5035,10 +5045,10 @@
         <v>1.5</v>
       </c>
       <c r="F119" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G119" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -5070,7 +5080,7 @@
         <v>90</v>
       </c>
       <c r="G120" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H120" s="1">
         <v>0</v>
@@ -5102,7 +5112,7 @@
         <v>90</v>
       </c>
       <c r="G121" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H121" s="1">
         <v>0</v>
@@ -5134,7 +5144,7 @@
         <v>90</v>
       </c>
       <c r="G122" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H122" s="1">
         <v>0</v>
@@ -5166,7 +5176,7 @@
         <v>90</v>
       </c>
       <c r="G123" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H123" s="1">
         <v>0</v>
@@ -5198,7 +5208,7 @@
         <v>100</v>
       </c>
       <c r="G124" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H124" s="1">
         <v>0</v>
@@ -5230,7 +5240,7 @@
         <v>110</v>
       </c>
       <c r="G125" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H125" s="1">
         <v>0</v>
@@ -5262,7 +5272,7 @@
         <v>120</v>
       </c>
       <c r="G126" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H126" s="1">
         <v>0</v>
@@ -5294,7 +5304,7 @@
         <v>90</v>
       </c>
       <c r="G127" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H127" s="1">
         <v>0</v>
@@ -5326,7 +5336,7 @@
         <v>100</v>
       </c>
       <c r="G128" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H128" s="1">
         <v>0</v>
@@ -5358,7 +5368,7 @@
         <v>100</v>
       </c>
       <c r="G129" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H129" s="1">
         <v>0</v>
@@ -5390,7 +5400,7 @@
         <v>110</v>
       </c>
       <c r="G130" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H130" s="1">
         <v>0</v>
@@ -5422,7 +5432,7 @@
         <v>110</v>
       </c>
       <c r="G131" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H131" s="1">
         <v>0</v>
@@ -5454,7 +5464,7 @@
         <v>120</v>
       </c>
       <c r="G132" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H132" s="1">
         <v>0</v>
@@ -5486,7 +5496,7 @@
         <v>120</v>
       </c>
       <c r="G133" s="1">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H133" s="1">
         <v>0</v>
@@ -5518,7 +5528,7 @@
         <v>90</v>
       </c>
       <c r="G134" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H134" s="1">
         <v>0</v>
@@ -5550,7 +5560,7 @@
         <v>100</v>
       </c>
       <c r="G135" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H135" s="1">
         <v>0</v>
@@ -5582,7 +5592,7 @@
         <v>100</v>
       </c>
       <c r="G136" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H136" s="1">
         <v>0</v>
@@ -5614,7 +5624,7 @@
         <v>110</v>
       </c>
       <c r="G137" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H137" s="1">
         <v>0</v>
@@ -5646,7 +5656,7 @@
         <v>110</v>
       </c>
       <c r="G138" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H138" s="1">
         <v>0</v>
@@ -5678,7 +5688,7 @@
         <v>120</v>
       </c>
       <c r="G139" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H139" s="1">
         <v>0</v>
@@ -5707,10 +5717,10 @@
         <v>1.5</v>
       </c>
       <c r="F140" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G140" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H140" s="1">
         <v>10200</v>
@@ -5740,7 +5750,7 @@
   <sheetPr/>
   <dimension ref="A1:G357"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
@@ -13978,8 +13988,8 @@
   <sheetPr/>
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A142" sqref="$A142:$XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -14063,13 +14073,13 @@
         <v>1073</v>
       </c>
       <c r="C6" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>1040</v>
@@ -14313,7 +14323,7 @@
         <v>10101</v>
       </c>
       <c r="B17" s="1">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="C17" s="1">
         <v>-1</v>
@@ -14451,19 +14461,19 @@
         <v>10107</v>
       </c>
       <c r="B23" s="6">
-        <v>1010</v>
+        <v>1075</v>
       </c>
       <c r="C23" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
-        <v>1035</v>
+        <v>1052</v>
       </c>
       <c r="G23" s="6">
         <v>100</v>
@@ -14612,19 +14622,19 @@
         <v>10207</v>
       </c>
       <c r="B30" s="7">
-        <v>1034</v>
+        <v>1074</v>
       </c>
       <c r="C30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>1004</v>
+        <v>1040</v>
       </c>
       <c r="G30" s="6">
         <v>100</v>
@@ -14773,19 +14783,19 @@
         <v>10307</v>
       </c>
       <c r="B37" s="7">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="C37" s="6">
         <v>2</v>
       </c>
       <c r="D37" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="G37" s="6">
         <v>100</v>
@@ -14934,7 +14944,7 @@
         <v>10407</v>
       </c>
       <c r="B44" s="7">
-        <v>1009</v>
+        <v>1078</v>
       </c>
       <c r="C44" s="6">
         <v>2</v>
@@ -14946,7 +14956,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="1">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="G44" s="6">
         <v>100</v>
@@ -15095,7 +15105,7 @@
         <v>10507</v>
       </c>
       <c r="B51" s="7">
-        <v>1043</v>
+        <v>1081</v>
       </c>
       <c r="C51" s="6">
         <v>4</v>
@@ -15107,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="G51" s="6">
         <v>100</v>
@@ -15118,7 +15128,7 @@
         <v>10601</v>
       </c>
       <c r="B52" s="1">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -15256,19 +15266,19 @@
         <v>10607</v>
       </c>
       <c r="B58" s="6">
-        <v>1010</v>
+        <v>1083</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1">
-        <v>1016</v>
+        <v>1056</v>
       </c>
       <c r="G58" s="1">
         <v>100</v>
@@ -15417,7 +15427,7 @@
         <v>10707</v>
       </c>
       <c r="B65" s="7">
-        <v>1034</v>
+        <v>1073</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
@@ -15429,7 +15439,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="1">
-        <v>1004</v>
+        <v>1042</v>
       </c>
       <c r="G65" s="6">
         <v>100</v>
@@ -15578,7 +15588,7 @@
         <v>10807</v>
       </c>
       <c r="B72" s="7">
-        <v>1055</v>
+        <v>1080</v>
       </c>
       <c r="C72" s="1">
         <v>6</v>
@@ -15590,7 +15600,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="1">
-        <v>1007</v>
+        <v>1045</v>
       </c>
       <c r="G72" s="6">
         <v>100</v>
@@ -15647,7 +15657,7 @@
         <v>10903</v>
       </c>
       <c r="B75" s="9">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C75" s="1">
         <v>6</v>
@@ -15670,7 +15680,7 @@
         <v>10904</v>
       </c>
       <c r="B76" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
@@ -15693,7 +15703,7 @@
         <v>10905</v>
       </c>
       <c r="B77" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
@@ -15739,7 +15749,7 @@
         <v>10907</v>
       </c>
       <c r="B79" s="7">
-        <v>1043</v>
+        <v>1082</v>
       </c>
       <c r="C79" s="1">
         <v>3</v>
@@ -15751,7 +15761,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="1">
-        <v>1008</v>
+        <v>1048</v>
       </c>
       <c r="G79" s="6">
         <v>100</v>
@@ -15762,7 +15772,7 @@
         <v>11001</v>
       </c>
       <c r="B80" s="1">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>
@@ -15900,7 +15910,7 @@
         <v>11007</v>
       </c>
       <c r="B86" s="6">
-        <v>1010</v>
+        <v>1075</v>
       </c>
       <c r="C86" s="1">
         <v>4</v>
@@ -15912,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="1">
-        <v>1017</v>
+        <v>1053</v>
       </c>
       <c r="G86" s="6">
         <v>100</v>
@@ -16061,7 +16071,7 @@
         <v>11107</v>
       </c>
       <c r="B93" s="7">
-        <v>1034</v>
+        <v>1074</v>
       </c>
       <c r="C93" s="1">
         <v>6</v>
@@ -16073,7 +16083,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="1">
-        <v>1008</v>
+        <v>1043</v>
       </c>
       <c r="G93" s="6">
         <v>100</v>
@@ -16222,7 +16232,7 @@
         <v>11207</v>
       </c>
       <c r="B100" s="7">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="C100" s="1">
         <v>5</v>
@@ -16234,7 +16244,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="1">
-        <v>1010</v>
+        <v>1057</v>
       </c>
       <c r="G100" s="6">
         <v>100</v>
@@ -16383,7 +16393,7 @@
         <v>11307</v>
       </c>
       <c r="B107" s="7">
-        <v>1009</v>
+        <v>1085</v>
       </c>
       <c r="C107" s="1">
         <v>3</v>
@@ -16395,7 +16405,7 @@
         <v>3</v>
       </c>
       <c r="F107" s="1">
-        <v>1008</v>
+        <v>1038</v>
       </c>
       <c r="G107" s="6">
         <v>100</v>
@@ -16452,7 +16462,7 @@
         <v>11403</v>
       </c>
       <c r="B110" s="9">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C110" s="1">
         <v>6</v>
@@ -16475,7 +16485,7 @@
         <v>11404</v>
       </c>
       <c r="B111" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C111" s="1">
         <v>5</v>
@@ -16498,7 +16508,7 @@
         <v>11405</v>
       </c>
       <c r="B112" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C112" s="1">
         <v>5</v>
@@ -16544,7 +16554,7 @@
         <v>11407</v>
       </c>
       <c r="B114" s="7">
-        <v>1043</v>
+        <v>1081</v>
       </c>
       <c r="C114" s="1">
         <v>5</v>
@@ -16556,7 +16566,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="1">
-        <v>1008</v>
+        <v>1058</v>
       </c>
       <c r="G114" s="6">
         <v>100</v>
@@ -16567,7 +16577,7 @@
         <v>11501</v>
       </c>
       <c r="B115" s="1">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="C115" s="1">
         <v>6</v>
@@ -16705,7 +16715,7 @@
         <v>11507</v>
       </c>
       <c r="B121" s="1">
-        <v>1010</v>
+        <v>1083</v>
       </c>
       <c r="C121" s="1">
         <v>4</v>
@@ -16717,7 +16727,7 @@
         <v>2</v>
       </c>
       <c r="F121" s="1">
-        <v>1018</v>
+        <v>1054</v>
       </c>
       <c r="G121" s="1">
         <v>100</v>
@@ -16866,7 +16876,7 @@
         <v>11607</v>
       </c>
       <c r="B128" s="7">
-        <v>1034</v>
+        <v>1086</v>
       </c>
       <c r="C128" s="1">
         <v>3</v>
@@ -16878,7 +16888,7 @@
         <v>3</v>
       </c>
       <c r="F128" s="1">
-        <v>1004</v>
+        <v>1043</v>
       </c>
       <c r="G128" s="6">
         <v>100</v>
@@ -17027,7 +17037,7 @@
         <v>11707</v>
       </c>
       <c r="B135" s="7">
-        <v>1055</v>
+        <v>1087</v>
       </c>
       <c r="C135" s="1">
         <v>3</v>
@@ -17039,7 +17049,7 @@
         <v>3</v>
       </c>
       <c r="F135" s="1">
-        <v>1009</v>
+        <v>1059</v>
       </c>
       <c r="G135" s="6">
         <v>100</v>
@@ -17096,7 +17106,7 @@
         <v>11803</v>
       </c>
       <c r="B138" s="9">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C138" s="1">
         <v>5</v>
@@ -17119,7 +17129,7 @@
         <v>11804</v>
       </c>
       <c r="B139" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C139" s="1">
         <v>5</v>
@@ -17142,7 +17152,7 @@
         <v>11805</v>
       </c>
       <c r="B140" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C140" s="1">
         <v>4</v>
@@ -17188,7 +17198,7 @@
         <v>11807</v>
       </c>
       <c r="B142" s="7">
-        <v>1043</v>
+        <v>1088</v>
       </c>
       <c r="C142" s="1">
         <v>5</v>
@@ -17200,7 +17210,7 @@
         <v>3</v>
       </c>
       <c r="F142" s="1">
-        <v>1008</v>
+        <v>1050</v>
       </c>
       <c r="G142" s="6">
         <v>100</v>
